--- a/MEJORA_CONTINUA/VERSIÓN INICIAL V2.xlsx
+++ b/MEJORA_CONTINUA/VERSIÓN INICIAL V2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PROYECTO\Escritorio\ANALÍTICA\UNIDAD ANALÍTICA\TOGGL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\REPOSITORIO_PROYECTOS\GESTION-CALIDAD-ANALITICA\MEJORA_CONTINUA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9135" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9135"/>
   </bookViews>
   <sheets>
     <sheet name="DESCRIPCIÓN" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="22" r:id="rId6"/>
+    <pivotCache cacheId="5" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,37 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="80">
   <si>
     <t>Workspace</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF24272B"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Project</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF24272B"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> &gt; Time Entry</t>
-    </r>
-  </si>
-  <si>
     <t>Duration</t>
   </si>
   <si>
@@ -246,9 +220,6 @@
   </si>
   <si>
     <t>Posteriormente, todos los valores en la columna ACTIVIDAD que sean cero, se eliminan para evitar duplicidad de los tiempos de los proyectos</t>
-  </si>
-  <si>
-    <t>Tracked last week (2019-05-27 - 2019-06-02)</t>
   </si>
   <si>
     <t>JAIME</t>
@@ -265,6 +236,42 @@
   <si>
     <t xml:space="preserve">La idea es tomar la tabla enviada semanalmente por Toggl y pegarla en esta pestaña con el fin de normalizar la información de los proyectos y actividades.
 Al pegar la información en la pestaña RECOLECCIÓN, se recomienda haber eliminado las combinaciones de celdas en las columnas A:E, finalmente se copia el rango desde la celda F9 (Actualizando el nombre del colaborador) hasta el final de los datos y se pegan en la pestaña DATA, columna A y primera fila disponible. </t>
+  </si>
+  <si>
+    <t>Tracked last week (2019-06-03 - 2019-06-09)</t>
+  </si>
+  <si>
+    <t>&gt; Project &gt; Time Entry</t>
+  </si>
+  <si>
+    <t>Ayuda a Jorge para revisión de factura 1806</t>
+  </si>
+  <si>
+    <t>Encuesta percepciones de interés</t>
+  </si>
+  <si>
+    <t>Generar listado de costos de personal por persona y centro de costos relacionado con presupuestos</t>
+  </si>
+  <si>
+    <t>Generar listado de ingresos por centro de costos asociado a los conceptos de presupustos</t>
+  </si>
+  <si>
+    <t>Recopilar la información de fecha de inicio y duración de los profesionales de contrataciones</t>
+  </si>
+  <si>
+    <t>Descarga de Info Github</t>
+  </si>
+  <si>
+    <t>Ajuste presentación proyección financiera</t>
+  </si>
+  <si>
+    <t>Realizar propuesta de mapa de procesos</t>
+  </si>
+  <si>
+    <t>Elaborar presentación de los resultados y presentar al área de tecnología</t>
+  </si>
+  <si>
+    <t>2019-06-03 - 2019-06-09</t>
   </si>
 </sst>
 </file>
@@ -276,7 +283,7 @@
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,14 +315,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FF24272B"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
       <sz val="10"/>
       <color rgb="FF24272B"/>
       <name val="Arial"/>
@@ -413,7 +412,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -439,7 +438,7 @@
     <xf numFmtId="46" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -448,7 +447,7 @@
     <xf numFmtId="21" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="21" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="21" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -461,36 +460,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
@@ -502,30 +493,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="78">
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" indent="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" indent="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" indent="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="42">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -569,9 +546,6 @@
       <protection locked="1"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <alignment wrapText="0" indent="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -590,28 +564,13 @@
       <alignment wrapText="1" readingOrder="0"/>
     </dxf>
     <dxf>
-      <protection locked="0"/>
+      <alignment wrapText="1" readingOrder="0"/>
     </dxf>
     <dxf>
-      <protection locked="0"/>
+      <alignment wrapText="1" readingOrder="0"/>
     </dxf>
     <dxf>
-      <protection locked="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1"/>
-    </dxf>
-    <dxf>
-      <protection locked="1"/>
-    </dxf>
-    <dxf>
-      <protection locked="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment wrapText="1" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment wrapText="0" indent="0" readingOrder="0"/>
@@ -621,78 +580,6 @@
     </dxf>
     <dxf>
       <alignment wrapText="0" indent="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1"/>
-    </dxf>
-    <dxf>
-      <protection locked="1"/>
-    </dxf>
-    <dxf>
-      <protection locked="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" indent="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" indent="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" indent="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1"/>
-    </dxf>
-    <dxf>
-      <protection locked="1"/>
-    </dxf>
-    <dxf>
-      <protection locked="1"/>
     </dxf>
     <dxf>
       <protection locked="1"/>
@@ -786,7 +673,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Andres Madrigal C" refreshedDate="43626.495442013889" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="31">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Andres Madrigal C" refreshedDate="43627.504520601855" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="45">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabla1"/>
   </cacheSource>
@@ -809,7 +696,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="ACTIVIDAD" numFmtId="0">
-      <sharedItems count="26">
+      <sharedItems count="35">
         <s v="Corregir la proyección de acuerdo con los comentarios de la presentación (FFIE 1670) y los nuevos de maría claudia"/>
         <s v="Requerimiento de Fecha Inicial y Final en los proyectos"/>
         <s v="Reunión para definición del aplicativo de facturación"/>
@@ -836,6 +723,15 @@
         <s v="Reunión Entrega de Planeación Financiera"/>
         <s v="Planteamiento del proyecto de medición cargas unidad"/>
         <s v="Estudio de la herramienta Toggl"/>
+        <s v="Ayuda a Jorge para revisión de factura 1806"/>
+        <s v="Encuesta percepciones de interés"/>
+        <s v="Generar listado de costos de personal por persona y centro de costos relacionado con presupuestos"/>
+        <s v="Generar listado de ingresos por centro de costos asociado a los conceptos de presupustos"/>
+        <s v="Recopilar la información de fecha de inicio y duración de los profesionales de contrataciones"/>
+        <s v="Descarga de Info Github"/>
+        <s v="Ajuste presentación proyección financiera"/>
+        <s v="Realizar propuesta de mapa de procesos"/>
+        <s v="Elaborar presentación de los resultados y presentar al área de tecnología"/>
       </sharedItems>
     </cacheField>
     <cacheField name="TIEMPO (días)" numFmtId="165">
@@ -845,10 +741,11 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.340277777777778E-3" maxValue="2.8546874999999998"/>
     </cacheField>
     <cacheField name="FECHA" numFmtId="165">
-      <sharedItems count="3">
+      <sharedItems count="4">
         <s v="2019-05-27 - 2019-06-02"/>
         <s v="2019-05-20 - 2019-05-26"/>
         <s v="2019-05-13 - 2019-05-19"/>
+        <s v="2019-06-03 - 2019-06-09"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -861,7 +758,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="31">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="45">
   <r>
     <s v="ANDRÉS"/>
     <x v="0"/>
@@ -1110,12 +1007,124 @@
     <n v="0.3039236111111111"/>
     <x v="2"/>
   </r>
+  <r>
+    <s v="ANDRÉS"/>
+    <x v="0"/>
+    <x v="26"/>
+    <n v="1.8877314814814816E-2"/>
+    <n v="5.6631944444444443E-2"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="ANDRÉS"/>
+    <x v="0"/>
+    <x v="27"/>
+    <n v="3.2002314814814817E-2"/>
+    <n v="9.600694444444445E-2"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="ANDRÉS"/>
+    <x v="0"/>
+    <x v="28"/>
+    <n v="4.1921296296296297E-2"/>
+    <n v="0.1257638888888889"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="ANDRÉS"/>
+    <x v="0"/>
+    <x v="29"/>
+    <n v="4.9363425925925929E-2"/>
+    <n v="0.14809027777777778"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="ANDRÉS"/>
+    <x v="0"/>
+    <x v="30"/>
+    <n v="3.4814814814814812E-2"/>
+    <n v="0.10444444444444444"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="ANDRÉS"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="0.31473379629629633"/>
+    <n v="0.94420138888888894"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="ANDRÉS"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="9.8425925925925917E-2"/>
+    <n v="0.29527777777777775"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="ANDRÉS"/>
+    <x v="2"/>
+    <x v="31"/>
+    <n v="5.5555555555555558E-3"/>
+    <n v="1.6666666666666666E-2"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="ANDRÉS"/>
+    <x v="2"/>
+    <x v="7"/>
+    <n v="1.5231481481481483E-2"/>
+    <n v="4.5694444444444447E-2"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="ANDRÉS"/>
+    <x v="3"/>
+    <x v="32"/>
+    <n v="0.2217824074074074"/>
+    <n v="0.6653472222222222"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="ANDRÉS"/>
+    <x v="3"/>
+    <x v="33"/>
+    <n v="5.9189814814814813E-2"/>
+    <n v="0.17756944444444445"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="ANDRÉS"/>
+    <x v="3"/>
+    <x v="23"/>
+    <n v="9.375E-2"/>
+    <n v="0.28125"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="ANDRÉS"/>
+    <x v="4"/>
+    <x v="14"/>
+    <n v="0.29348379629629628"/>
+    <n v="0.88045138888888885"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="ANDRÉS"/>
+    <x v="4"/>
+    <x v="34"/>
+    <n v="0.17219907407407409"/>
+    <n v="0.51659722222222226"/>
+    <x v="3"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:E43" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:F52" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
@@ -1134,7 +1143,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="27">
+      <items count="36">
         <item x="17"/>
         <item x="14"/>
         <item x="0"/>
@@ -1161,16 +1170,26 @@
         <item x="2"/>
         <item x="3"/>
         <item x="7"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField dataField="1" numFmtId="165" showAll="0"/>
     <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisCol" showAll="0">
-      <items count="4">
+      <items count="5">
         <item x="2"/>
         <item x="1"/>
         <item x="0"/>
+        <item x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1179,7 +1198,7 @@
     <field x="1"/>
     <field x="2"/>
   </rowFields>
-  <rowItems count="39">
+  <rowItems count="48">
     <i>
       <x/>
     </i>
@@ -1204,6 +1223,21 @@
     <i r="1">
       <x v="24"/>
     </i>
+    <i r="1">
+      <x v="26"/>
+    </i>
+    <i r="1">
+      <x v="27"/>
+    </i>
+    <i r="1">
+      <x v="28"/>
+    </i>
+    <i r="1">
+      <x v="29"/>
+    </i>
+    <i r="1">
+      <x v="30"/>
+    </i>
     <i>
       <x v="1"/>
     </i>
@@ -1227,6 +1261,9 @@
     </i>
     <i r="1">
       <x v="25"/>
+    </i>
+    <i r="1">
+      <x v="31"/>
     </i>
     <i>
       <x v="4"/>
@@ -1264,11 +1301,20 @@
     <i r="1">
       <x v="22"/>
     </i>
+    <i r="1">
+      <x v="32"/>
+    </i>
+    <i r="1">
+      <x v="33"/>
+    </i>
     <i>
       <x v="6"/>
     </i>
     <i r="1">
       <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="34"/>
     </i>
     <i>
       <x v="7"/>
@@ -1301,7 +1347,7 @@
   <colFields count="1">
     <field x="5"/>
   </colFields>
-  <colItems count="4">
+  <colItems count="5">
     <i>
       <x/>
     </i>
@@ -1311,6 +1357,9 @@
     <i>
       <x v="2"/>
     </i>
+    <i>
+      <x v="3"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -1319,7 +1368,7 @@
     <dataField name="Suma de TIEMPO (días)" fld="3" baseField="2" baseItem="2"/>
   </dataFields>
   <formats count="20">
-    <format dxfId="75">
+    <format dxfId="39">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -1328,17 +1377,17 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="74">
+    <format dxfId="38">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="73">
+    <format dxfId="37">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="72">
+    <format dxfId="36">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -1348,17 +1397,17 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="71">
+    <format dxfId="35">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="70">
+    <format dxfId="34">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="69">
+    <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -1368,33 +1417,33 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="68">
+    <format dxfId="32">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="67">
+    <format dxfId="31">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="66">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="65">
+    <format dxfId="29">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="64">
+    <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="63">
+    <format dxfId="27">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="62">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -1404,17 +1453,17 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="25">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -1424,17 +1473,17 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="0">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -1455,17 +1504,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:F32" totalsRowShown="0">
-  <autoFilter ref="A1:F32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:F46" totalsRowShown="0">
+  <autoFilter ref="A1:F46"/>
   <tableColumns count="6">
     <tableColumn id="1" name="COLABORADOR"/>
     <tableColumn id="2" name="PROYECTO"/>
     <tableColumn id="3" name="ACTIVIDAD"/>
-    <tableColumn id="4" name="TIEMPO (días)" dataDxfId="77" dataCellStyle="Millares [0]"/>
-    <tableColumn id="5" name="TIEMPO (días laborables)">
-      <calculatedColumnFormula>+D2*24/8</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" name="FECHA" dataDxfId="76" dataCellStyle="Millares [0]"/>
+    <tableColumn id="4" name="TIEMPO (días)" dataDxfId="41" dataCellStyle="Millares [0]"/>
+    <tableColumn id="5" name="TIEMPO (días laborables)"/>
+    <tableColumn id="6" name="FECHA" dataDxfId="40" dataCellStyle="Millares [0]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1736,7 +1783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1750,43 +1797,43 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="16"/>
     </row>
@@ -1799,7 +1846,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K163"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10:K163"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1808,7 +1857,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H1" s="20">
         <v>0</v>
@@ -1827,7 +1876,7 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" s="22"/>
     </row>
@@ -1842,7 +1891,7 @@
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1851,12 +1900,12 @@
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="6">
-        <v>1.8025810185185185</v>
+        <v>1.4513310185185186</v>
       </c>
       <c r="E8" s="24"/>
       <c r="I8" s="21"/>
@@ -1869,104 +1918,104 @@
       <c r="D9" s="8"/>
       <c r="E9" s="23"/>
       <c r="F9" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G9" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="I9" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="19" t="s">
         <v>28</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="K9" s="19" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="11">
-        <v>0.63787037037037042</v>
+        <v>0.49171296296296302</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" s="19" t="str">
         <f>IF(B10="",G9,B10)</f>
         <v>Atención, Soporte y Mantenimiento de Requerimientos</v>
       </c>
       <c r="H10" s="19">
-        <f t="shared" ref="H8:H71" si="0">C10</f>
+        <f t="shared" ref="H10:H71" si="0">C10</f>
         <v>0</v>
       </c>
       <c r="I10" s="21">
-        <f t="shared" ref="I7:I70" si="1">+D10-$H$1</f>
-        <v>0.63787037037037042</v>
+        <f t="shared" ref="I10:I70" si="1">+D10-$H$1</f>
+        <v>0.49171296296296302</v>
       </c>
       <c r="J10" s="19">
         <f>+I10*24/8</f>
-        <v>1.9136111111111114</v>
+        <v>1.475138888888889</v>
       </c>
       <c r="K10" s="19" t="str">
         <f>MID($A$1,20,23)</f>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="D11" s="12">
-        <v>0.14031250000000001</v>
+        <v>1.8877314814814816E-2</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G11" s="19" t="str">
-        <f t="shared" ref="G7:G70" si="2">IF(B11="",G10,B11)</f>
+        <f t="shared" ref="G11:G70" si="2">IF(B11="",G10,B11)</f>
         <v>Atención, Soporte y Mantenimiento de Requerimientos</v>
       </c>
       <c r="H11" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>Corregir la proyección de acuerdo con los comentarios de la presentación (FFIE 1670) y los nuevos de maría claudia</v>
+        <v>Ayuda a Jorge para revisión de factura 1806</v>
       </c>
       <c r="I11" s="21">
         <f t="shared" si="1"/>
-        <v>0.14031250000000001</v>
+        <v>1.8877314814814816E-2</v>
       </c>
       <c r="J11" s="19">
-        <f t="shared" ref="J7:J70" si="3">+I11*24/8</f>
-        <v>0.42093750000000002</v>
+        <f t="shared" ref="J11:J70" si="3">+I11*24/8</f>
+        <v>5.6631944444444443E-2</v>
       </c>
       <c r="K11" s="19" t="str">
         <f>MID($A$1,20,23)</f>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="D12" s="12">
-        <v>1.5613425925925926E-2</v>
+        <v>3.2002314814814817E-2</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G12" s="19" t="str">
         <f t="shared" si="2"/>
@@ -1974,33 +2023,33 @@
       </c>
       <c r="H12" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>Requerimiento de Fecha Inicial y Final en los proyectos</v>
+        <v>Encuesta percepciones de interés</v>
       </c>
       <c r="I12" s="21">
         <f t="shared" si="1"/>
-        <v>1.5613425925925926E-2</v>
+        <v>3.2002314814814817E-2</v>
       </c>
       <c r="J12" s="19">
         <f t="shared" si="3"/>
-        <v>4.6840277777777779E-2</v>
+        <v>9.600694444444445E-2</v>
       </c>
       <c r="K12" s="19" t="str">
         <f>MID($A$1,20,23)</f>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="D13" s="12">
-        <v>0.2170023148148148</v>
+        <v>4.1921296296296297E-2</v>
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G13" s="19" t="str">
         <f t="shared" si="2"/>
@@ -2008,33 +2057,33 @@
       </c>
       <c r="H13" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>Reunión para definición del aplicativo de facturación</v>
+        <v>Generar listado de costos de personal por persona y centro de costos relacionado con presupuestos</v>
       </c>
       <c r="I13" s="21">
         <f t="shared" si="1"/>
-        <v>0.2170023148148148</v>
+        <v>4.1921296296296297E-2</v>
       </c>
       <c r="J13" s="19">
         <f t="shared" si="3"/>
-        <v>0.6510069444444444</v>
+        <v>0.1257638888888889</v>
       </c>
       <c r="K13" s="19" t="str">
         <f>MID($A$1,20,23)</f>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="D14" s="12">
-        <v>0.26494212962962965</v>
+        <v>4.9363425925925929E-2</v>
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G14" s="19" t="str">
         <f t="shared" si="2"/>
@@ -2042,101 +2091,101 @@
       </c>
       <c r="H14" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>Revisar el reporteador de gestión de la facturación</v>
+        <v>Generar listado de ingresos por centro de costos asociado a los conceptos de presupustos</v>
       </c>
       <c r="I14" s="21">
         <f t="shared" si="1"/>
-        <v>0.26494212962962965</v>
+        <v>4.9363425925925929E-2</v>
       </c>
       <c r="J14" s="19">
         <f t="shared" si="3"/>
-        <v>0.7948263888888889</v>
+        <v>0.14809027777777778</v>
       </c>
       <c r="K14" s="19" t="str">
         <f>MID($A$1,20,23)</f>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
-      <c r="B15" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10" t="s">
+        <v>74</v>
+      </c>
       <c r="D15" s="11">
-        <v>0.10246527777777777</v>
+        <v>3.4814814814814812E-2</v>
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G15" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>Gestión de conocimiento</v>
-      </c>
-      <c r="H15" s="19">
+        <v>Atención, Soporte y Mantenimiento de Requerimientos</v>
+      </c>
+      <c r="H15" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>Recopilar la información de fecha de inicio y duración de los profesionales de contrataciones</v>
       </c>
       <c r="I15" s="21">
         <f t="shared" si="1"/>
-        <v>0.10246527777777777</v>
+        <v>3.4814814814814812E-2</v>
       </c>
       <c r="J15" s="19">
         <f t="shared" si="3"/>
-        <v>0.30739583333333331</v>
+        <v>0.10444444444444444</v>
       </c>
       <c r="K15" s="19" t="str">
-        <f t="shared" ref="K11:K74" si="4">MID($A$1,20,23)</f>
-        <v>2019-05-27 - 2019-06-02</v>
+        <f t="shared" ref="K15:K74" si="4">MID($A$1,20,23)</f>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D16" s="12">
-        <v>0.10246527777777777</v>
+        <v>0.31473379629629633</v>
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G16" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>Gestión de conocimiento</v>
+        <v>Atención, Soporte y Mantenimiento de Requerimientos</v>
       </c>
       <c r="H16" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>Reunión de Comunidad RRHH</v>
+        <v>Revisar el reporteador de gestión de la facturación</v>
       </c>
       <c r="I16" s="21">
         <f t="shared" si="1"/>
-        <v>0.10246527777777777</v>
+        <v>0.31473379629629633</v>
       </c>
       <c r="J16" s="19">
         <f t="shared" si="3"/>
-        <v>0.30739583333333331</v>
+        <v>0.94420138888888894</v>
       </c>
       <c r="K16" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="11">
-        <v>0.2834490740740741</v>
+        <v>0.11921296296296297</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G17" s="19" t="str">
         <f t="shared" si="2"/>
@@ -2148,29 +2197,29 @@
       </c>
       <c r="I17" s="21">
         <f t="shared" si="1"/>
-        <v>0.2834490740740741</v>
+        <v>0.11921296296296297</v>
       </c>
       <c r="J17" s="19">
         <f t="shared" si="3"/>
-        <v>0.85034722222222237</v>
+        <v>0.3576388888888889</v>
       </c>
       <c r="K17" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18" s="12">
-        <v>8.3495370370370373E-2</v>
+        <v>9.8425925925925917E-2</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G18" s="19" t="str">
         <f t="shared" si="2"/>
@@ -2182,29 +2231,29 @@
       </c>
       <c r="I18" s="21">
         <f t="shared" si="1"/>
-        <v>8.3495370370370373E-2</v>
+        <v>9.8425925925925917E-2</v>
       </c>
       <c r="J18" s="19">
         <f t="shared" si="3"/>
-        <v>0.25048611111111113</v>
+        <v>0.29527777777777775</v>
       </c>
       <c r="K18" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="D19" s="12">
-        <v>0.14091435185185186</v>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="E19" s="23"/>
       <c r="F19" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G19" s="19" t="str">
         <f t="shared" si="2"/>
@@ -2212,33 +2261,33 @@
       </c>
       <c r="H19" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>Exportar a excel las horas de la semana pasada de acuerdo con las reglas que establezca andres.</v>
+        <v>Descarga de Info Github</v>
       </c>
       <c r="I19" s="21">
         <f t="shared" si="1"/>
-        <v>0.14091435185185186</v>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="J19" s="19">
         <f t="shared" si="3"/>
-        <v>0.42274305555555558</v>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="K19" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" s="12">
-        <v>5.903935185185185E-2</v>
+        <v>1.5231481481481483E-2</v>
       </c>
       <c r="E20" s="23"/>
       <c r="F20" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G20" s="19" t="str">
         <f t="shared" si="2"/>
@@ -2250,29 +2299,29 @@
       </c>
       <c r="I20" s="21">
         <f t="shared" si="1"/>
-        <v>5.903935185185185E-2</v>
+        <v>1.5231481481481483E-2</v>
       </c>
       <c r="J20" s="19">
         <f t="shared" si="3"/>
-        <v>0.17711805555555554</v>
+        <v>4.5694444444444447E-2</v>
       </c>
       <c r="K20" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="11">
-        <v>0.40052083333333338</v>
+        <v>0.37472222222222223</v>
       </c>
       <c r="E21" s="23"/>
       <c r="F21" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G21" s="19" t="str">
         <f t="shared" si="2"/>
@@ -2284,29 +2333,29 @@
       </c>
       <c r="I21" s="21">
         <f t="shared" si="1"/>
-        <v>0.40052083333333338</v>
+        <v>0.37472222222222223</v>
       </c>
       <c r="J21" s="19">
         <f t="shared" si="3"/>
-        <v>1.2015625000000001</v>
+        <v>1.1241666666666668</v>
       </c>
       <c r="K21" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="D22" s="12">
-        <v>1.4247685185185184E-2</v>
+        <v>0.2217824074074074</v>
       </c>
       <c r="E22" s="23"/>
       <c r="F22" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G22" s="19" t="str">
         <f t="shared" si="2"/>
@@ -2314,33 +2363,33 @@
       </c>
       <c r="H22" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>ELIMINAR 500 MILLONES DE TELESKOP</v>
+        <v>Ajuste presentación proyección financiera</v>
       </c>
       <c r="I22" s="21">
         <f t="shared" si="1"/>
-        <v>1.4247685185185184E-2</v>
+        <v>0.2217824074074074</v>
       </c>
       <c r="J22" s="19">
         <f t="shared" si="3"/>
-        <v>4.2743055555555555E-2</v>
+        <v>0.6653472222222222</v>
       </c>
       <c r="K22" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="D23" s="12">
-        <v>3.125E-2</v>
+        <v>5.9189814814814813E-2</v>
       </c>
       <c r="E23" s="23"/>
       <c r="F23" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G23" s="19" t="str">
         <f t="shared" si="2"/>
@@ -2348,33 +2397,33 @@
       </c>
       <c r="H23" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>ESTABLECER LA CANTIDAD ANUAL ADICIONAL DE GASTO COMERCIAL PARA 2019 SI SE QUIEREN TENER 40 MIL y 41 MIL DE INGRESOS</v>
+        <v>Realizar propuesta de mapa de procesos</v>
       </c>
       <c r="I23" s="21">
         <f t="shared" si="1"/>
-        <v>3.125E-2</v>
+        <v>5.9189814814814813E-2</v>
       </c>
       <c r="J23" s="19">
         <f t="shared" si="3"/>
-        <v>9.375E-2</v>
+        <v>0.17756944444444445</v>
       </c>
       <c r="K23" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D24" s="12">
-        <v>1.1388888888888888E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="E24" s="23"/>
       <c r="F24" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G24" s="19" t="str">
         <f t="shared" si="2"/>
@@ -2382,135 +2431,131 @@
       </c>
       <c r="H24" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>PRESENTAR EL R2 DE LOS EJERCICIOS DE REGRESIÓN DEL GASTO COMERCIAL.</v>
+        <v>Reunión Entrega de Planeación Financiera</v>
       </c>
       <c r="I24" s="21">
         <f t="shared" si="1"/>
-        <v>1.1388888888888888E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="J24" s="19">
         <f t="shared" si="3"/>
-        <v>3.4166666666666665E-2</v>
+        <v>0.28125</v>
       </c>
       <c r="K24" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9" t="s">
-        <v>19</v>
-      </c>
+      <c r="B25" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="9"/>
       <c r="D25" s="12">
-        <v>0.11721064814814815</v>
+        <v>0.46568287037037037</v>
       </c>
       <c r="E25" s="23"/>
       <c r="F25" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G25" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>PROYECTO 10. RE-PLANIFICACIÓN TRIMESTRAL DE NEGOCIO</v>
-      </c>
-      <c r="H25" s="19" t="str">
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
+      </c>
+      <c r="H25" s="19">
         <f t="shared" si="0"/>
-        <v>REALIZAR EL CRUCE ENTRE LA PROYECCIÓN CONTRACTUAL ANTERIOR Y LA ACTUAL PARA SABER DONDE AUMENTO LO CONTRACTUAL Y CONTRASTARLO CON LOS OTROSIES DE LA PROYECCIÓN ANTERIOR</v>
+        <v>0</v>
       </c>
       <c r="I25" s="21">
         <f t="shared" si="1"/>
-        <v>0.11721064814814815</v>
+        <v>0.46568287037037037</v>
       </c>
       <c r="J25" s="19">
         <f t="shared" si="3"/>
-        <v>0.35163194444444446</v>
+        <v>1.3970486111111111</v>
       </c>
       <c r="K25" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D26" s="12">
-        <v>0.1014236111111111</v>
+        <v>0.29348379629629628</v>
       </c>
       <c r="E26" s="23"/>
       <c r="F26" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G26" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>PROYECTO 10. RE-PLANIFICACIÓN TRIMESTRAL DE NEGOCIO</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H26" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>Reunión de contexto - Planificación de negocio</v>
+        <v>Consolidar la información de las sesiones de trabajo, agruparla en necesidades de parametrización y capacitación</v>
       </c>
       <c r="I26" s="21">
         <f t="shared" si="1"/>
-        <v>0.1014236111111111</v>
+        <v>0.29348379629629628</v>
       </c>
       <c r="J26" s="19">
         <f t="shared" si="3"/>
-        <v>0.30427083333333332</v>
+        <v>0.88045138888888885</v>
       </c>
       <c r="K26" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="D27" s="12">
-        <v>0.125</v>
+        <v>0.17219907407407409</v>
       </c>
       <c r="E27" s="23"/>
       <c r="F27" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G27" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>PROYECTO 10. RE-PLANIFICACIÓN TRIMESTRAL DE NEGOCIO</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H27" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>Reunión de planeación</v>
+        <v>Elaborar presentación de los resultados y presentar al área de tecnología</v>
       </c>
       <c r="I27" s="21">
         <f t="shared" si="1"/>
-        <v>0.125</v>
+        <v>0.17219907407407409</v>
       </c>
       <c r="J27" s="19">
         <f t="shared" si="3"/>
-        <v>0.375</v>
+        <v>0.51659722222222226</v>
       </c>
       <c r="K27" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
-      <c r="B28" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="B28" s="10"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="11">
-        <v>9.4340277777777773E-2</v>
-      </c>
+      <c r="D28" s="11"/>
       <c r="E28" s="23"/>
       <c r="F28" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G28" s="19" t="str">
         <f t="shared" si="2"/>
@@ -2522,67 +2567,59 @@
       </c>
       <c r="I28" s="21">
         <f t="shared" si="1"/>
-        <v>9.4340277777777773E-2</v>
+        <v>0</v>
       </c>
       <c r="J28" s="19">
         <f t="shared" si="3"/>
-        <v>0.28302083333333333</v>
+        <v>0</v>
       </c>
       <c r="K28" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
-      <c r="C29" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="12">
-        <v>9.4340277777777773E-2</v>
-      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="12"/>
       <c r="E29" s="23"/>
       <c r="F29" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G29" s="19" t="str">
         <f t="shared" si="2"/>
         <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
-      <c r="H29" s="19" t="str">
+      <c r="H29" s="19">
         <f t="shared" si="0"/>
-        <v>Consolidar la información de las sesiones de trabajo, agruparla en necesidades de parametrización y capacitación</v>
+        <v>0</v>
       </c>
       <c r="I29" s="21">
         <f t="shared" si="1"/>
-        <v>9.4340277777777773E-2</v>
+        <v>0</v>
       </c>
       <c r="J29" s="19">
         <f t="shared" si="3"/>
-        <v>0.28302083333333333</v>
+        <v>0</v>
       </c>
       <c r="K29" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
-      <c r="B30" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="B30" s="10"/>
       <c r="C30" s="10"/>
-      <c r="D30" s="11">
-        <v>0.28393518518518518</v>
-      </c>
+      <c r="D30" s="11"/>
       <c r="E30" s="23"/>
       <c r="F30" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G30" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H30" s="19">
         <f t="shared" si="0"/>
@@ -2590,92 +2627,84 @@
       </c>
       <c r="I30" s="21">
         <f t="shared" si="1"/>
-        <v>0.28393518518518518</v>
+        <v>0</v>
       </c>
       <c r="J30" s="19">
         <f t="shared" si="3"/>
-        <v>0.85180555555555548</v>
+        <v>0</v>
       </c>
       <c r="K30" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
-      <c r="C31" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="12">
-        <v>6.9907407407407404E-2</v>
-      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="12"/>
       <c r="E31" s="23"/>
       <c r="F31" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G31" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
-      </c>
-      <c r="H31" s="19" t="str">
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
+      </c>
+      <c r="H31" s="19">
         <f t="shared" si="0"/>
-        <v>Incluir el calculo filtrado del multiplicador en una pestaña adicional (filtrar fechas)</v>
+        <v>0</v>
       </c>
       <c r="I31" s="21">
         <f t="shared" si="1"/>
-        <v>6.9907407407407404E-2</v>
+        <v>0</v>
       </c>
       <c r="J31" s="19">
         <f t="shared" si="3"/>
-        <v>0.2097222222222222</v>
+        <v>0</v>
       </c>
       <c r="K31" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
-      <c r="C32" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="12">
-        <v>0.21402777777777779</v>
-      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="12"/>
       <c r="E32" s="23"/>
       <c r="F32" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G32" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
-      </c>
-      <c r="H32" s="19" t="str">
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
+      </c>
+      <c r="H32" s="19">
         <f t="shared" si="0"/>
-        <v>Relacionar indicadores de financiera con el servicio del centro de costos</v>
+        <v>0</v>
       </c>
       <c r="I32" s="21">
         <f t="shared" si="1"/>
-        <v>0.21402777777777779</v>
+        <v>0</v>
       </c>
       <c r="J32" s="19">
         <f t="shared" si="3"/>
-        <v>0.64208333333333334</v>
+        <v>0</v>
       </c>
       <c r="K32" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="33" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F33" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G33" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H33" s="19">
         <f t="shared" si="0"/>
@@ -2691,16 +2720,16 @@
       </c>
       <c r="K33" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="34" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F34" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G34" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H34" s="19">
         <f t="shared" si="0"/>
@@ -2716,16 +2745,16 @@
       </c>
       <c r="K34" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="35" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F35" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G35" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H35" s="19">
         <f t="shared" si="0"/>
@@ -2741,16 +2770,16 @@
       </c>
       <c r="K35" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="36" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F36" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G36" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H36" s="19">
         <f t="shared" si="0"/>
@@ -2766,16 +2795,16 @@
       </c>
       <c r="K36" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="37" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F37" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G37" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H37" s="19">
         <f t="shared" si="0"/>
@@ -2791,16 +2820,16 @@
       </c>
       <c r="K37" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="38" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F38" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G38" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H38" s="19">
         <f t="shared" si="0"/>
@@ -2816,16 +2845,16 @@
       </c>
       <c r="K38" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="39" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F39" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G39" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H39" s="19">
         <f t="shared" si="0"/>
@@ -2841,16 +2870,16 @@
       </c>
       <c r="K39" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="40" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F40" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G40" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H40" s="19">
         <f t="shared" si="0"/>
@@ -2866,16 +2895,16 @@
       </c>
       <c r="K40" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="41" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F41" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G41" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H41" s="19">
         <f t="shared" si="0"/>
@@ -2891,16 +2920,16 @@
       </c>
       <c r="K41" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="42" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F42" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G42" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H42" s="19">
         <f t="shared" si="0"/>
@@ -2916,16 +2945,16 @@
       </c>
       <c r="K42" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="43" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F43" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G43" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H43" s="19">
         <f t="shared" si="0"/>
@@ -2941,16 +2970,16 @@
       </c>
       <c r="K43" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="44" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F44" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G44" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H44" s="19">
         <f t="shared" si="0"/>
@@ -2966,16 +2995,16 @@
       </c>
       <c r="K44" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="45" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F45" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G45" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H45" s="19">
         <f t="shared" si="0"/>
@@ -2991,16 +3020,16 @@
       </c>
       <c r="K45" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="46" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F46" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G46" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H46" s="19">
         <f t="shared" si="0"/>
@@ -3016,16 +3045,16 @@
       </c>
       <c r="K46" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="47" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F47" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G47" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H47" s="19">
         <f t="shared" si="0"/>
@@ -3041,16 +3070,16 @@
       </c>
       <c r="K47" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="48" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F48" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G48" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H48" s="19">
         <f t="shared" si="0"/>
@@ -3066,16 +3095,16 @@
       </c>
       <c r="K48" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="49" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F49" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G49" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H49" s="19">
         <f t="shared" si="0"/>
@@ -3091,16 +3120,16 @@
       </c>
       <c r="K49" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="50" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F50" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G50" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H50" s="19">
         <f t="shared" si="0"/>
@@ -3116,16 +3145,16 @@
       </c>
       <c r="K50" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="51" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F51" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G51" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H51" s="19">
         <f t="shared" si="0"/>
@@ -3141,16 +3170,16 @@
       </c>
       <c r="K51" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="52" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F52" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G52" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H52" s="19">
         <f t="shared" si="0"/>
@@ -3166,16 +3195,16 @@
       </c>
       <c r="K52" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="53" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F53" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G53" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H53" s="19">
         <f t="shared" si="0"/>
@@ -3191,16 +3220,16 @@
       </c>
       <c r="K53" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="54" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F54" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G54" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H54" s="19">
         <f t="shared" si="0"/>
@@ -3216,16 +3245,16 @@
       </c>
       <c r="K54" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="55" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F55" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G55" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H55" s="19">
         <f t="shared" si="0"/>
@@ -3241,16 +3270,16 @@
       </c>
       <c r="K55" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="56" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F56" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G56" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H56" s="19">
         <f t="shared" si="0"/>
@@ -3266,16 +3295,16 @@
       </c>
       <c r="K56" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="57" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F57" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G57" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H57" s="19">
         <f t="shared" si="0"/>
@@ -3291,16 +3320,16 @@
       </c>
       <c r="K57" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="58" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F58" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G58" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H58" s="19">
         <f t="shared" si="0"/>
@@ -3316,16 +3345,16 @@
       </c>
       <c r="K58" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="59" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F59" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G59" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H59" s="19">
         <f t="shared" si="0"/>
@@ -3341,16 +3370,16 @@
       </c>
       <c r="K59" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="60" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F60" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G60" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H60" s="19">
         <f t="shared" si="0"/>
@@ -3366,16 +3395,16 @@
       </c>
       <c r="K60" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="61" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F61" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G61" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H61" s="19">
         <f t="shared" si="0"/>
@@ -3391,16 +3420,16 @@
       </c>
       <c r="K61" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="62" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F62" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G62" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H62" s="19">
         <f t="shared" si="0"/>
@@ -3416,16 +3445,16 @@
       </c>
       <c r="K62" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="63" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F63" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G63" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H63" s="19">
         <f t="shared" si="0"/>
@@ -3441,16 +3470,16 @@
       </c>
       <c r="K63" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="64" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F64" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G64" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H64" s="19">
         <f t="shared" si="0"/>
@@ -3466,16 +3495,16 @@
       </c>
       <c r="K64" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="65" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F65" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G65" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H65" s="19">
         <f t="shared" si="0"/>
@@ -3491,16 +3520,16 @@
       </c>
       <c r="K65" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="66" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F66" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G66" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H66" s="19">
         <f t="shared" si="0"/>
@@ -3516,16 +3545,16 @@
       </c>
       <c r="K66" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="67" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F67" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G67" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H67" s="19">
         <f t="shared" si="0"/>
@@ -3541,16 +3570,16 @@
       </c>
       <c r="K67" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="68" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F68" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G68" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H68" s="19">
         <f t="shared" si="0"/>
@@ -3566,16 +3595,16 @@
       </c>
       <c r="K68" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="69" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F69" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G69" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H69" s="19">
         <f t="shared" si="0"/>
@@ -3591,16 +3620,16 @@
       </c>
       <c r="K69" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="70" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F70" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G70" s="19" t="str">
         <f t="shared" si="2"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H70" s="19">
         <f t="shared" si="0"/>
@@ -3616,16 +3645,16 @@
       </c>
       <c r="K70" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="71" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F71" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G71" s="19" t="str">
         <f t="shared" ref="G71:G134" si="5">IF(B71="",G70,B71)</f>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H71" s="19">
         <f t="shared" si="0"/>
@@ -3641,16 +3670,16 @@
       </c>
       <c r="K71" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="72" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F72" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G72" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H72" s="19">
         <f t="shared" ref="H72:H135" si="8">C72</f>
@@ -3666,16 +3695,16 @@
       </c>
       <c r="K72" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="73" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F73" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G73" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H73" s="19">
         <f t="shared" si="8"/>
@@ -3691,16 +3720,16 @@
       </c>
       <c r="K73" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="74" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F74" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G74" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H74" s="19">
         <f t="shared" si="8"/>
@@ -3716,16 +3745,16 @@
       </c>
       <c r="K74" s="19" t="str">
         <f t="shared" si="4"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="75" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F75" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G75" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H75" s="19">
         <f t="shared" si="8"/>
@@ -3741,16 +3770,16 @@
       </c>
       <c r="K75" s="19" t="str">
         <f t="shared" ref="K75:K138" si="9">MID($A$1,20,23)</f>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="76" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F76" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G76" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H76" s="19">
         <f t="shared" si="8"/>
@@ -3766,16 +3795,16 @@
       </c>
       <c r="K76" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="77" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F77" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G77" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H77" s="19">
         <f t="shared" si="8"/>
@@ -3791,16 +3820,16 @@
       </c>
       <c r="K77" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="78" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F78" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G78" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H78" s="19">
         <f t="shared" si="8"/>
@@ -3816,16 +3845,16 @@
       </c>
       <c r="K78" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="79" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F79" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G79" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H79" s="19">
         <f t="shared" si="8"/>
@@ -3841,16 +3870,16 @@
       </c>
       <c r="K79" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="80" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F80" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G80" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H80" s="19">
         <f t="shared" si="8"/>
@@ -3866,16 +3895,16 @@
       </c>
       <c r="K80" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="81" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F81" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G81" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H81" s="19">
         <f t="shared" si="8"/>
@@ -3891,16 +3920,16 @@
       </c>
       <c r="K81" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="82" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F82" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G82" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H82" s="19">
         <f t="shared" si="8"/>
@@ -3916,16 +3945,16 @@
       </c>
       <c r="K82" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="83" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F83" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G83" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H83" s="19">
         <f t="shared" si="8"/>
@@ -3941,16 +3970,16 @@
       </c>
       <c r="K83" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="84" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F84" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G84" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H84" s="19">
         <f t="shared" si="8"/>
@@ -3966,16 +3995,16 @@
       </c>
       <c r="K84" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="85" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F85" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G85" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H85" s="19">
         <f t="shared" si="8"/>
@@ -3991,16 +4020,16 @@
       </c>
       <c r="K85" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="86" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F86" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G86" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H86" s="19">
         <f t="shared" si="8"/>
@@ -4016,16 +4045,16 @@
       </c>
       <c r="K86" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="87" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F87" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G87" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H87" s="19">
         <f t="shared" si="8"/>
@@ -4041,16 +4070,16 @@
       </c>
       <c r="K87" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="88" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F88" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G88" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H88" s="19">
         <f t="shared" si="8"/>
@@ -4066,16 +4095,16 @@
       </c>
       <c r="K88" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="89" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F89" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G89" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H89" s="19">
         <f t="shared" si="8"/>
@@ -4091,16 +4120,16 @@
       </c>
       <c r="K89" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="90" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F90" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G90" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H90" s="19">
         <f t="shared" si="8"/>
@@ -4116,16 +4145,16 @@
       </c>
       <c r="K90" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="91" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F91" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G91" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H91" s="19">
         <f t="shared" si="8"/>
@@ -4141,16 +4170,16 @@
       </c>
       <c r="K91" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="92" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F92" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G92" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H92" s="19">
         <f t="shared" si="8"/>
@@ -4166,16 +4195,16 @@
       </c>
       <c r="K92" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="93" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F93" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G93" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H93" s="19">
         <f t="shared" si="8"/>
@@ -4191,16 +4220,16 @@
       </c>
       <c r="K93" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="94" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F94" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G94" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H94" s="19">
         <f t="shared" si="8"/>
@@ -4216,16 +4245,16 @@
       </c>
       <c r="K94" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="95" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F95" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G95" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H95" s="19">
         <f t="shared" si="8"/>
@@ -4241,16 +4270,16 @@
       </c>
       <c r="K95" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="96" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F96" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G96" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H96" s="19">
         <f t="shared" si="8"/>
@@ -4266,16 +4295,16 @@
       </c>
       <c r="K96" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="97" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F97" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G97" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H97" s="19">
         <f t="shared" si="8"/>
@@ -4291,16 +4320,16 @@
       </c>
       <c r="K97" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="98" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F98" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G98" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H98" s="19">
         <f t="shared" si="8"/>
@@ -4316,16 +4345,16 @@
       </c>
       <c r="K98" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="99" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F99" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G99" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H99" s="19">
         <f t="shared" si="8"/>
@@ -4341,16 +4370,16 @@
       </c>
       <c r="K99" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="100" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F100" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G100" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H100" s="19">
         <f t="shared" si="8"/>
@@ -4366,16 +4395,16 @@
       </c>
       <c r="K100" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="101" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F101" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G101" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H101" s="19">
         <f t="shared" si="8"/>
@@ -4391,16 +4420,16 @@
       </c>
       <c r="K101" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="102" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F102" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G102" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H102" s="19">
         <f t="shared" si="8"/>
@@ -4416,16 +4445,16 @@
       </c>
       <c r="K102" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="103" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F103" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G103" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H103" s="19">
         <f t="shared" si="8"/>
@@ -4441,16 +4470,16 @@
       </c>
       <c r="K103" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="104" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F104" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G104" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H104" s="19">
         <f t="shared" si="8"/>
@@ -4466,16 +4495,16 @@
       </c>
       <c r="K104" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="105" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F105" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G105" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H105" s="19">
         <f t="shared" si="8"/>
@@ -4491,16 +4520,16 @@
       </c>
       <c r="K105" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="106" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F106" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G106" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H106" s="19">
         <f t="shared" si="8"/>
@@ -4516,16 +4545,16 @@
       </c>
       <c r="K106" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="107" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F107" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G107" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H107" s="19">
         <f t="shared" si="8"/>
@@ -4541,16 +4570,16 @@
       </c>
       <c r="K107" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="108" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F108" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G108" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H108" s="19">
         <f t="shared" si="8"/>
@@ -4566,16 +4595,16 @@
       </c>
       <c r="K108" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="109" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F109" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G109" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H109" s="19">
         <f t="shared" si="8"/>
@@ -4591,16 +4620,16 @@
       </c>
       <c r="K109" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="110" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F110" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G110" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H110" s="19">
         <f t="shared" si="8"/>
@@ -4616,16 +4645,16 @@
       </c>
       <c r="K110" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="111" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F111" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G111" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H111" s="19">
         <f t="shared" si="8"/>
@@ -4641,16 +4670,16 @@
       </c>
       <c r="K111" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="112" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F112" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G112" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H112" s="19">
         <f t="shared" si="8"/>
@@ -4666,16 +4695,16 @@
       </c>
       <c r="K112" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="113" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F113" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G113" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H113" s="19">
         <f t="shared" si="8"/>
@@ -4691,16 +4720,16 @@
       </c>
       <c r="K113" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="114" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F114" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G114" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H114" s="19">
         <f t="shared" si="8"/>
@@ -4716,16 +4745,16 @@
       </c>
       <c r="K114" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="115" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F115" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G115" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H115" s="19">
         <f t="shared" si="8"/>
@@ -4741,16 +4770,16 @@
       </c>
       <c r="K115" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="116" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F116" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G116" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H116" s="19">
         <f t="shared" si="8"/>
@@ -4766,16 +4795,16 @@
       </c>
       <c r="K116" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="117" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F117" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G117" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H117" s="19">
         <f t="shared" si="8"/>
@@ -4791,16 +4820,16 @@
       </c>
       <c r="K117" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="118" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F118" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G118" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H118" s="19">
         <f t="shared" si="8"/>
@@ -4816,16 +4845,16 @@
       </c>
       <c r="K118" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="119" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F119" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G119" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H119" s="19">
         <f t="shared" si="8"/>
@@ -4841,16 +4870,16 @@
       </c>
       <c r="K119" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="120" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F120" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G120" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H120" s="19">
         <f t="shared" si="8"/>
@@ -4866,16 +4895,16 @@
       </c>
       <c r="K120" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="121" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F121" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G121" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H121" s="19">
         <f t="shared" si="8"/>
@@ -4891,16 +4920,16 @@
       </c>
       <c r="K121" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="122" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F122" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G122" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H122" s="19">
         <f t="shared" si="8"/>
@@ -4916,16 +4945,16 @@
       </c>
       <c r="K122" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="123" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F123" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G123" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H123" s="19">
         <f t="shared" si="8"/>
@@ -4941,16 +4970,16 @@
       </c>
       <c r="K123" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="124" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F124" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G124" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H124" s="19">
         <f t="shared" si="8"/>
@@ -4966,16 +4995,16 @@
       </c>
       <c r="K124" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="125" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F125" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G125" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H125" s="19">
         <f t="shared" si="8"/>
@@ -4991,16 +5020,16 @@
       </c>
       <c r="K125" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="126" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F126" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G126" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H126" s="19">
         <f t="shared" si="8"/>
@@ -5016,16 +5045,16 @@
       </c>
       <c r="K126" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="127" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F127" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G127" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H127" s="19">
         <f t="shared" si="8"/>
@@ -5041,16 +5070,16 @@
       </c>
       <c r="K127" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="128" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F128" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G128" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H128" s="19">
         <f t="shared" si="8"/>
@@ -5066,16 +5095,16 @@
       </c>
       <c r="K128" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="129" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F129" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G129" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H129" s="19">
         <f t="shared" si="8"/>
@@ -5091,16 +5120,16 @@
       </c>
       <c r="K129" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="130" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F130" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G130" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H130" s="19">
         <f t="shared" si="8"/>
@@ -5116,16 +5145,16 @@
       </c>
       <c r="K130" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="131" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F131" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G131" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H131" s="19">
         <f t="shared" si="8"/>
@@ -5141,16 +5170,16 @@
       </c>
       <c r="K131" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="132" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F132" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G132" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H132" s="19">
         <f t="shared" si="8"/>
@@ -5166,16 +5195,16 @@
       </c>
       <c r="K132" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="133" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F133" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G133" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H133" s="19">
         <f t="shared" si="8"/>
@@ -5191,16 +5220,16 @@
       </c>
       <c r="K133" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="134" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F134" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G134" s="19" t="str">
         <f t="shared" si="5"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H134" s="19">
         <f t="shared" si="8"/>
@@ -5216,16 +5245,16 @@
       </c>
       <c r="K134" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="135" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F135" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G135" s="19" t="str">
         <f t="shared" ref="G135:G163" si="10">IF(B135="",G134,B135)</f>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H135" s="19">
         <f t="shared" si="8"/>
@@ -5241,16 +5270,16 @@
       </c>
       <c r="K135" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="136" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F136" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G136" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H136" s="19">
         <f t="shared" ref="H136:H163" si="13">C136</f>
@@ -5266,16 +5295,16 @@
       </c>
       <c r="K136" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="137" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F137" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G137" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H137" s="19">
         <f t="shared" si="13"/>
@@ -5291,16 +5320,16 @@
       </c>
       <c r="K137" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="138" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F138" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G138" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H138" s="19">
         <f t="shared" si="13"/>
@@ -5316,16 +5345,16 @@
       </c>
       <c r="K138" s="19" t="str">
         <f t="shared" si="9"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="139" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F139" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G139" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H139" s="19">
         <f t="shared" si="13"/>
@@ -5341,16 +5370,16 @@
       </c>
       <c r="K139" s="19" t="str">
         <f t="shared" ref="K139:K163" si="14">MID($A$1,20,23)</f>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="140" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F140" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G140" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H140" s="19">
         <f t="shared" si="13"/>
@@ -5366,16 +5395,16 @@
       </c>
       <c r="K140" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="141" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F141" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G141" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H141" s="19">
         <f t="shared" si="13"/>
@@ -5391,16 +5420,16 @@
       </c>
       <c r="K141" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="142" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F142" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G142" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H142" s="19">
         <f t="shared" si="13"/>
@@ -5416,16 +5445,16 @@
       </c>
       <c r="K142" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="143" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F143" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G143" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H143" s="19">
         <f t="shared" si="13"/>
@@ -5441,16 +5470,16 @@
       </c>
       <c r="K143" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="144" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F144" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G144" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H144" s="19">
         <f t="shared" si="13"/>
@@ -5466,16 +5495,16 @@
       </c>
       <c r="K144" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="145" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F145" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G145" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H145" s="19">
         <f t="shared" si="13"/>
@@ -5491,16 +5520,16 @@
       </c>
       <c r="K145" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="146" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F146" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G146" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H146" s="19">
         <f t="shared" si="13"/>
@@ -5516,16 +5545,16 @@
       </c>
       <c r="K146" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="147" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F147" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G147" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H147" s="19">
         <f t="shared" si="13"/>
@@ -5541,16 +5570,16 @@
       </c>
       <c r="K147" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="148" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F148" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G148" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H148" s="19">
         <f t="shared" si="13"/>
@@ -5566,16 +5595,16 @@
       </c>
       <c r="K148" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="149" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F149" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G149" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H149" s="19">
         <f t="shared" si="13"/>
@@ -5591,16 +5620,16 @@
       </c>
       <c r="K149" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="150" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F150" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G150" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H150" s="19">
         <f t="shared" si="13"/>
@@ -5616,16 +5645,16 @@
       </c>
       <c r="K150" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="151" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F151" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G151" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H151" s="19">
         <f t="shared" si="13"/>
@@ -5641,16 +5670,16 @@
       </c>
       <c r="K151" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="152" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F152" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G152" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H152" s="19">
         <f t="shared" si="13"/>
@@ -5666,16 +5695,16 @@
       </c>
       <c r="K152" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="153" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F153" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G153" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H153" s="19">
         <f t="shared" si="13"/>
@@ -5691,16 +5720,16 @@
       </c>
       <c r="K153" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="154" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F154" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G154" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H154" s="19">
         <f t="shared" si="13"/>
@@ -5716,16 +5745,16 @@
       </c>
       <c r="K154" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="155" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F155" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G155" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H155" s="19">
         <f t="shared" si="13"/>
@@ -5741,16 +5770,16 @@
       </c>
       <c r="K155" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="156" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F156" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G156" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H156" s="19">
         <f t="shared" si="13"/>
@@ -5766,16 +5795,16 @@
       </c>
       <c r="K156" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="157" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F157" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G157" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H157" s="19">
         <f t="shared" si="13"/>
@@ -5791,16 +5820,16 @@
       </c>
       <c r="K157" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="158" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F158" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G158" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H158" s="19">
         <f t="shared" si="13"/>
@@ -5816,16 +5845,16 @@
       </c>
       <c r="K158" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="159" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F159" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G159" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H159" s="19">
         <f t="shared" si="13"/>
@@ -5841,16 +5870,16 @@
       </c>
       <c r="K159" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="160" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F160" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G160" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H160" s="19">
         <f t="shared" si="13"/>
@@ -5866,16 +5895,16 @@
       </c>
       <c r="K160" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="161" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F161" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G161" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H161" s="19">
         <f t="shared" si="13"/>
@@ -5891,16 +5920,16 @@
       </c>
       <c r="K161" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="162" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F162" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G162" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H162" s="19">
         <f t="shared" si="13"/>
@@ -5916,16 +5945,16 @@
       </c>
       <c r="K162" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
     <row r="163" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F163" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G163" s="19" t="str">
         <f t="shared" si="10"/>
-        <v>PROYECTO 6. SISTEMA DE INDICADORES</v>
+        <v>PROYECTO 11. DIAGNÓSTICO PSL (ANALÍTICA/TECNOLOGÍA)</v>
       </c>
       <c r="H163" s="19">
         <f t="shared" si="13"/>
@@ -5941,7 +5970,7 @@
       </c>
       <c r="K163" s="19" t="str">
         <f t="shared" si="14"/>
-        <v>2019-05-27 - 2019-06-02</v>
+        <v>2019-06-03 - 2019-06-09</v>
       </c>
     </row>
   </sheetData>
@@ -5973,27 +6002,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -6003,10 +6032,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6020,673 +6049,922 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" t="s">
         <v>28</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
       <c r="D2" s="13">
         <v>0.14031250000000001</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E32" si="0">+D2*24/8</f>
         <v>0.42093750000000002</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="13">
         <v>1.5613425925925926E-2</v>
       </c>
       <c r="E3">
-        <f t="shared" si="0"/>
         <v>4.6840277777777779E-2</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="13">
         <v>0.2170023148148148</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
         <v>0.6510069444444444</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="13">
         <v>0.26494212962962965</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
         <v>0.7948263888888889</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
         <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
       </c>
       <c r="D6" s="13">
         <v>0.10246527777777777</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
         <v>0.30739583333333331</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
         <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
       </c>
       <c r="D7" s="13">
         <v>8.3495370370370373E-2</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
         <v>0.25048611111111113</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="13">
         <v>0.14091435185185186</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
         <v>0.42274305555555558</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="13">
         <v>5.903935185185185E-2</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
         <v>0.17711805555555554</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
         <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
       </c>
       <c r="D10" s="13">
         <v>1.4247685185185184E-2</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
         <v>4.2743055555555555E-2</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" s="13">
         <v>3.125E-2</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
         <v>9.375E-2</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="13">
         <v>1.1388888888888888E-2</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
         <v>3.4166666666666665E-2</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="13">
         <v>0.11721064814814815</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
         <v>0.35163194444444446</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="13">
         <v>0.1014236111111111</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
         <v>0.30427083333333332</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" s="13">
         <v>0.125</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
         <v>22</v>
-      </c>
-      <c r="C16" t="s">
-        <v>23</v>
       </c>
       <c r="D16" s="13">
         <v>9.4340277777777773E-2</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
         <v>0.28302083333333333</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
         <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
       </c>
       <c r="D17" s="13">
         <v>6.9907407407407404E-2</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
         <v>0.2097222222222222</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" s="13">
         <v>0.21402777777777779</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
         <v>0.64208333333333334</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" s="13">
         <v>1.0532407407407407E-2</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
         <v>3.1597222222222221E-2</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="13">
         <v>8.3159722222222218E-2</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
         <v>0.24947916666666664</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D21" s="13">
         <v>0.35069444444444442</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
         <v>1.0520833333333333</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s">
         <v>35</v>
-      </c>
-      <c r="C22" t="s">
-        <v>36</v>
       </c>
       <c r="D22" s="13">
         <v>3.4722222222222224E-2</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
         <v>0.10416666666666667</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
         <v>11</v>
-      </c>
-      <c r="C23" t="s">
-        <v>12</v>
       </c>
       <c r="D23" s="13">
         <v>7.7893518518518515E-2</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
         <v>0.23368055555555556</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D24" s="13">
         <v>4.2615740740740739E-2</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
         <v>0.12784722222222222</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D25" s="13">
         <v>0.95156249999999998</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
         <v>2.8546874999999998</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D26" s="13">
         <v>5.7511574074074069E-2</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
         <v>0.17253472222222221</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D27" s="13">
         <v>5.7638888888888885E-2</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
         <v>0.17291666666666666</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" t="s">
         <v>22</v>
-      </c>
-      <c r="C28" t="s">
-        <v>23</v>
       </c>
       <c r="D28" s="13">
         <v>5.6712962962962965E-2</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
         <v>0.1701388888888889</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" t="s">
         <v>40</v>
-      </c>
-      <c r="C29" t="s">
-        <v>41</v>
       </c>
       <c r="D29" s="13">
         <v>1.4467592592592594E-3</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
         <v>4.340277777777778E-3</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D30" s="13">
         <v>1.8645833333333334E-2</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
         <v>5.5937500000000001E-2</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
         <v>44</v>
-      </c>
-      <c r="C31" t="s">
-        <v>45</v>
       </c>
       <c r="D31" s="13">
         <v>7.6273148148148151E-3</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
         <v>2.2881944444444444E-2</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D32" s="13">
         <v>0.10130787037037037</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
         <v>0.3039236111111111</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="13">
+        <v>1.8877314814814816E-2</v>
+      </c>
+      <c r="E33">
+        <v>5.6631944444444443E-2</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="13">
+        <v>3.2002314814814817E-2</v>
+      </c>
+      <c r="E34">
+        <v>9.600694444444445E-2</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="13">
+        <v>4.1921296296296297E-2</v>
+      </c>
+      <c r="E35">
+        <v>0.1257638888888889</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="13">
+        <v>4.9363425925925929E-2</v>
+      </c>
+      <c r="E36">
+        <v>0.14809027777777778</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="13">
+        <v>3.4814814814814812E-2</v>
+      </c>
+      <c r="E37">
+        <v>0.10444444444444444</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="13">
+        <v>0.31473379629629633</v>
+      </c>
+      <c r="E38">
+        <v>0.94420138888888894</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="13">
+        <v>9.8425925925925917E-2</v>
+      </c>
+      <c r="E39">
+        <v>0.29527777777777775</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" s="13">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="E40">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="13">
+        <v>1.5231481481481483E-2</v>
+      </c>
+      <c r="E41">
+        <v>4.5694444444444447E-2</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" s="13">
+        <v>0.2217824074074074</v>
+      </c>
+      <c r="E42">
+        <v>0.6653472222222222</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" s="13">
+        <v>5.9189814814814813E-2</v>
+      </c>
+      <c r="E43">
+        <v>0.17756944444444445</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" s="13">
+        <v>9.375E-2</v>
+      </c>
+      <c r="E44">
+        <v>0.28125</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="13">
+        <v>0.29348379629629628</v>
+      </c>
+      <c r="E45">
+        <v>0.88045138888888885</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" t="s">
+        <v>78</v>
+      </c>
+      <c r="D46" s="13">
+        <v>0.17219907407407409</v>
+      </c>
+      <c r="E46">
+        <v>0.51659722222222226</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -6699,573 +6977,761 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E43"/>
+  <dimension ref="A3:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="78.28515625" style="31" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" style="27" customWidth="1"/>
-    <col min="3" max="4" width="21.7109375" style="27" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="27" customWidth="1"/>
-    <col min="6" max="6" width="31.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="27"/>
+    <col min="1" max="1" width="78.28515625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="26" customWidth="1"/>
+    <col min="3" max="4" width="21.7109375" style="26" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="26" customWidth="1"/>
+    <col min="6" max="6" width="31.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="26"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="26" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="27" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27">
+        <v>0.44438657407407406</v>
+      </c>
+      <c r="D5" s="27">
+        <v>0.63787037037037031</v>
+      </c>
+      <c r="E5" s="27">
+        <v>0.49171296296296296</v>
+      </c>
+      <c r="F5" s="27">
+        <v>1.5739699074074076</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27">
+        <v>1.0532407407407407E-2</v>
+      </c>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27">
+        <v>1.0532407407407407E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27">
+        <v>0.14031250000000001</v>
+      </c>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27">
+        <v>0.14031250000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27">
+        <v>8.3159722222222218E-2</v>
+      </c>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27">
+        <v>8.3159722222222218E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27">
+        <v>1.5613425925925926E-2</v>
+      </c>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27">
+        <v>1.5613425925925926E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27">
+        <v>0.35069444444444442</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27">
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27">
+        <v>0.2170023148148148</v>
+      </c>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27">
+        <v>0.2170023148148148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27">
+        <v>0.26494212962962965</v>
+      </c>
+      <c r="E12" s="27">
+        <v>0.31473379629629633</v>
+      </c>
+      <c r="F12" s="27">
+        <v>0.57967592592592598</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27">
+        <v>1.8877314814814816E-2</v>
+      </c>
+      <c r="F13" s="27">
+        <v>1.8877314814814816E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27">
+        <v>3.2002314814814817E-2</v>
+      </c>
+      <c r="F14" s="27">
+        <v>3.2002314814814817E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27">
+        <v>4.1921296296296297E-2</v>
+      </c>
+      <c r="F15" s="27">
+        <v>4.1921296296296297E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27">
+        <v>4.9363425925925929E-2</v>
+      </c>
+      <c r="F16" s="27">
+        <v>4.9363425925925929E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27">
+        <v>3.4814814814814812E-2</v>
+      </c>
+      <c r="F17" s="27">
+        <v>3.4814814814814812E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27">
+        <v>0.10246527777777777</v>
+      </c>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27">
+        <v>0.10246527777777777</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27">
+        <v>0.10246527777777777</v>
+      </c>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27">
+        <v>0.10246527777777777</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27">
+        <v>3.4722222222222224E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27">
+        <v>3.4722222222222224E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27">
+        <v>7.7893518518518515E-2</v>
+      </c>
+      <c r="D22" s="27">
+        <v>0.28344907407407405</v>
+      </c>
+      <c r="E22" s="27">
+        <v>0.11921296296296295</v>
+      </c>
+      <c r="F22" s="27">
+        <v>0.48055555555555557</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27">
+        <v>7.7893518518518515E-2</v>
+      </c>
+      <c r="D23" s="27">
+        <v>8.3495370370370373E-2</v>
+      </c>
+      <c r="E23" s="27">
+        <v>9.8425925925925917E-2</v>
+      </c>
+      <c r="F23" s="27">
+        <v>0.25981481481481483</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27">
+        <v>0.14091435185185186</v>
+      </c>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27">
+        <v>0.14091435185185186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27">
+        <v>5.903935185185185E-2</v>
+      </c>
+      <c r="E25" s="27">
+        <v>1.5231481481481483E-2</v>
+      </c>
+      <c r="F25" s="27">
+        <v>7.4270833333333328E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="F26" s="27">
+        <v>5.5555555555555558E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29">
-        <v>0.44438657407407406</v>
-      </c>
-      <c r="D5" s="29">
-        <v>0.63787037037037031</v>
-      </c>
-      <c r="E5" s="29">
-        <v>1.0822569444444445</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29">
-        <v>1.0532407407407407E-2</v>
-      </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29">
-        <v>1.0532407407407407E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29">
-        <v>0.14031250000000001</v>
-      </c>
-      <c r="E7" s="29">
-        <v>0.14031250000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29">
-        <v>8.3159722222222218E-2</v>
-      </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29">
-        <v>8.3159722222222218E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29">
-        <v>1.5613425925925926E-2</v>
-      </c>
-      <c r="E9" s="29">
-        <v>1.5613425925925926E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29">
-        <v>0.35069444444444442</v>
-      </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29">
-        <v>0.35069444444444442</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29">
-        <v>0.2170023148148148</v>
-      </c>
-      <c r="E11" s="29">
-        <v>0.2170023148148148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29">
-        <v>0.26494212962962965</v>
-      </c>
-      <c r="E12" s="29">
-        <v>0.26494212962962965</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+      <c r="B27" s="27">
+        <v>1.8645833333333334E-2</v>
+      </c>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27">
+        <v>1.8645833333333334E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="27">
+        <v>1.8645833333333334E-2</v>
+      </c>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27">
+        <v>1.8645833333333334E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27">
+        <v>1.1093287037037036</v>
+      </c>
+      <c r="D29" s="27">
+        <v>0.40052083333333333</v>
+      </c>
+      <c r="E29" s="27">
+        <v>0.37472222222222223</v>
+      </c>
+      <c r="F29" s="27">
+        <v>1.884571759259259</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27">
+        <v>4.2615740740740739E-2</v>
+      </c>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27">
+        <v>4.2615740740740739E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27">
+        <v>1.4247685185185184E-2</v>
+      </c>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27">
+        <v>1.4247685185185184E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27">
+        <v>3.125E-2</v>
+      </c>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27">
+        <v>0.95156249999999998</v>
+      </c>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27">
+        <v>0.95156249999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27">
+        <v>1.1388888888888888E-2</v>
+      </c>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27">
+        <v>1.1388888888888888E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27">
+        <v>0.11721064814814815</v>
+      </c>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27">
+        <v>0.11721064814814815</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27">
+        <v>0.1014236111111111</v>
+      </c>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27">
+        <v>0.1014236111111111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27">
+        <v>5.7511574074074069E-2</v>
+      </c>
+      <c r="D37" s="27">
+        <v>0.125</v>
+      </c>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27">
+        <v>0.18251157407407406</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27">
+        <v>5.7638888888888885E-2</v>
+      </c>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27">
+        <v>9.375E-2</v>
+      </c>
+      <c r="F38" s="27">
+        <v>0.15138888888888888</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27">
+        <v>0.2217824074074074</v>
+      </c>
+      <c r="F39" s="27">
+        <v>0.2217824074074074</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27">
+        <v>5.9189814814814813E-2</v>
+      </c>
+      <c r="F40" s="27">
+        <v>5.9189814814814813E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27">
+        <v>5.6712962962962965E-2</v>
+      </c>
+      <c r="D41" s="27">
+        <v>9.4340277777777773E-2</v>
+      </c>
+      <c r="E41" s="27">
+        <v>0.46568287037037037</v>
+      </c>
+      <c r="F41" s="27">
+        <v>0.61673611111111115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27">
+        <v>5.6712962962962965E-2</v>
+      </c>
+      <c r="D42" s="27">
+        <v>9.4340277777777773E-2</v>
+      </c>
+      <c r="E42" s="27">
+        <v>0.29348379629629628</v>
+      </c>
+      <c r="F42" s="27">
+        <v>0.44453703703703701</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27">
+        <v>0.17219907407407409</v>
+      </c>
+      <c r="F43" s="27">
+        <v>0.17219907407407409</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="27">
+        <v>0.10893518518518518</v>
+      </c>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27">
+        <v>0.10893518518518518</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="27">
+        <v>7.6273148148148151E-3</v>
+      </c>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27">
+        <v>7.6273148148148151E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29">
-        <v>0.10246527777777777</v>
-      </c>
-      <c r="E13" s="29">
-        <v>0.10246527777777777</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29">
-        <v>0.10246527777777777</v>
-      </c>
-      <c r="E14" s="29">
-        <v>0.10246527777777777</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29">
-        <v>3.4722222222222224E-2</v>
-      </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29">
-        <v>3.4722222222222224E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29">
-        <v>3.4722222222222224E-2</v>
-      </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29">
-        <v>3.4722222222222224E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29">
-        <v>7.7893518518518515E-2</v>
-      </c>
-      <c r="D17" s="29">
-        <v>0.28344907407407405</v>
-      </c>
-      <c r="E17" s="29">
-        <v>0.3613425925925926</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29">
-        <v>7.7893518518518515E-2</v>
-      </c>
-      <c r="D18" s="29">
-        <v>8.3495370370370373E-2</v>
-      </c>
-      <c r="E18" s="29">
-        <v>0.16138888888888889</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29">
-        <v>0.14091435185185186</v>
-      </c>
-      <c r="E19" s="29">
-        <v>0.14091435185185186</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29">
-        <v>5.903935185185185E-2</v>
-      </c>
-      <c r="E20" s="29">
-        <v>5.903935185185185E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="29">
-        <v>1.8645833333333334E-2</v>
-      </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29">
-        <v>1.8645833333333334E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="29">
-        <v>1.8645833333333334E-2</v>
-      </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29">
-        <v>1.8645833333333334E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29">
-        <v>1.1093287037037036</v>
-      </c>
-      <c r="D23" s="29">
-        <v>0.40052083333333333</v>
-      </c>
-      <c r="E23" s="29">
-        <v>1.5098495370370368</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29">
-        <v>4.2615740740740739E-2</v>
-      </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29">
-        <v>4.2615740740740739E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29">
-        <v>1.4247685185185184E-2</v>
-      </c>
-      <c r="E25" s="29">
-        <v>1.4247685185185184E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29">
-        <v>3.125E-2</v>
-      </c>
-      <c r="E26" s="29">
-        <v>3.125E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29">
-        <v>0.95156249999999998</v>
-      </c>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29">
-        <v>0.95156249999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29">
-        <v>1.1388888888888888E-2</v>
-      </c>
-      <c r="E28" s="29">
-        <v>1.1388888888888888E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29">
-        <v>0.11721064814814815</v>
-      </c>
-      <c r="E29" s="29">
-        <v>0.11721064814814815</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29">
-        <v>0.1014236111111111</v>
-      </c>
-      <c r="E30" s="29">
-        <v>0.1014236111111111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29">
-        <v>5.7511574074074069E-2</v>
-      </c>
-      <c r="D31" s="29">
-        <v>0.125</v>
-      </c>
-      <c r="E31" s="29">
-        <v>0.18251157407407406</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="28" t="s">
+      <c r="B46" s="27">
+        <v>0.10130787037037037</v>
+      </c>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27">
+        <v>0.10130787037037037</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29">
-        <v>5.7638888888888885E-2</v>
-      </c>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29">
-        <v>5.7638888888888885E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29">
-        <v>5.6712962962962965E-2</v>
-      </c>
-      <c r="D33" s="29">
-        <v>9.4340277777777773E-2</v>
-      </c>
-      <c r="E33" s="29">
-        <v>0.15105324074074072</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="28" t="s">
+      <c r="B47" s="27"/>
+      <c r="C47" s="27">
+        <v>1.4467592592592594E-3</v>
+      </c>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27">
+        <v>1.4467592592592594E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27">
+        <v>1.4467592592592594E-3</v>
+      </c>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27">
+        <v>1.4467592592592594E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29">
-        <v>5.6712962962962965E-2</v>
-      </c>
-      <c r="D34" s="29">
-        <v>9.4340277777777773E-2</v>
-      </c>
-      <c r="E34" s="29">
-        <v>0.15105324074074072</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="29">
-        <v>0.10893518518518518</v>
-      </c>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29">
-        <v>0.10893518518518518</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36" s="29">
-        <v>7.6273148148148151E-3</v>
-      </c>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29">
-        <v>7.6273148148148151E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="29">
-        <v>0.10130787037037037</v>
-      </c>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29">
-        <v>0.10130787037037037</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29">
-        <v>1.4467592592592594E-3</v>
-      </c>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29">
-        <v>1.4467592592592594E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29">
-        <v>1.4467592592592594E-3</v>
-      </c>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29">
-        <v>1.4467592592592594E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="30" t="s">
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27">
+        <v>0.28393518518518518</v>
+      </c>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27">
+        <v>0.28393518518518518</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29">
-        <v>0.28393518518518518</v>
-      </c>
-      <c r="E40" s="29">
-        <v>0.28393518518518518</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="28" t="s">
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27">
+        <v>6.9907407407407404E-2</v>
+      </c>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27">
+        <v>6.9907407407407404E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29">
-        <v>6.9907407407407404E-2</v>
-      </c>
-      <c r="E41" s="29">
-        <v>6.9907407407407404E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29">
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27">
         <v>0.21402777777777779</v>
       </c>
-      <c r="E42" s="29">
+      <c r="E51" s="27"/>
+      <c r="F51" s="27">
         <v>0.21402777777777779</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="B43" s="29">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="27">
         <v>0.12758101851851852</v>
       </c>
-      <c r="C43" s="29">
+      <c r="C52" s="27">
         <v>1.7244907407407406</v>
       </c>
-      <c r="D43" s="29">
+      <c r="D52" s="27">
         <v>1.8025810185185183</v>
       </c>
-      <c r="E43" s="29">
-        <v>3.6546527777777778</v>
+      <c r="E52" s="27">
+        <v>1.4513310185185184</v>
+      </c>
+      <c r="F52" s="27">
+        <v>5.1059837962962966</v>
       </c>
     </row>
   </sheetData>

--- a/MEJORA_CONTINUA/VERSIÓN INICIAL V2.xlsx
+++ b/MEJORA_CONTINUA/VERSIÓN INICIAL V2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\REPOSITORIO_PROYECTOS\GESTION-CALIDAD-ANALITICA\MEJORA_CONTINUA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\REPOSITORIOS_ANALITICA\PROD\GESTION-CALIDAD-ANALITICA\MEJORA_CONTINUA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9135" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="DESCRIPCIÓN" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="127">
   <si>
     <t>Workspace</t>
   </si>
@@ -272,6 +272,147 @@
   </si>
   <si>
     <t>2019-06-03 - 2019-06-09</t>
+  </si>
+  <si>
+    <t>Auditoria</t>
+  </si>
+  <si>
+    <t>Plan de intervención del programa de riesgo psicosocial</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>PROYECTO 1. MEJORAS FACTURACIÓN</t>
+  </si>
+  <si>
+    <t>Mejora para que las ediciones de factura se visualicen en el adjunto exportado</t>
+  </si>
+  <si>
+    <t>Actualización mejora para edit factura</t>
+  </si>
+  <si>
+    <t>PROYECTO 4. PILOTO APRENDIZ FORMATOS</t>
+  </si>
+  <si>
+    <t>Seguimiento Cinecolombia</t>
+  </si>
+  <si>
+    <t>PROYECTO 5. CALIFICACIÓN CONTRATISTAS</t>
+  </si>
+  <si>
+    <t>Mejora permisos</t>
+  </si>
+  <si>
+    <t>Mejora popup de usuario</t>
+  </si>
+  <si>
+    <t>Incluir el nombre del CECO en el buscador de los indicadores financieras</t>
+  </si>
+  <si>
+    <t>Maqueta y flujo app registro contratistas</t>
+  </si>
+  <si>
+    <t>Compromiso comunidad de control</t>
+  </si>
+  <si>
+    <t>Weekly</t>
+  </si>
+  <si>
+    <t>REUNION PLANIFICACION</t>
+  </si>
+  <si>
+    <t>Corrección R para que no se borren las facturas creadas en un mismo mes</t>
+  </si>
+  <si>
+    <t>Muestra del Div de total personas y Merge de mejoras</t>
+  </si>
+  <si>
+    <t>Revision error vista edición flujo de proyectos</t>
+  </si>
+  <si>
+    <t>Corrección error de flow de creacion de actividades precedentes</t>
+  </si>
+  <si>
+    <t>Corrección de usuarios y loggin</t>
+  </si>
+  <si>
+    <t>Corrección de vista detalles registro calificaciones</t>
+  </si>
+  <si>
+    <t>Entrega CONTRATISTAS módulo calificaciones</t>
+  </si>
+  <si>
+    <t>Evaluación de cambio de la vista de revisión de calificaciones</t>
+  </si>
+  <si>
+    <t>Mejora vista revisiones</t>
+  </si>
+  <si>
+    <t>Pruebas y mejora de la VISTA_DETALLES_REGISTROS_CALIFICACIONES_CHILD para mostrar por orden de fechas</t>
+  </si>
+  <si>
+    <t>Ajustar URL de descarga</t>
+  </si>
+  <si>
+    <t>Documentación carga archivo indicadores en servidor</t>
+  </si>
+  <si>
+    <t>Revisión de reporte de indicadores de gestión</t>
+  </si>
+  <si>
+    <t>Revision requerimiento INDICADORES - TIPO DE SERVICIO</t>
+  </si>
+  <si>
+    <t>ALMUERZO</t>
+  </si>
+  <si>
+    <t>Reunión comunidad de control</t>
+  </si>
+  <si>
+    <t>RECEPCIÓN DE SOLICITUDES ID23</t>
+  </si>
+  <si>
+    <t>RECEPCIÓN DE SOLICITUDES ID24</t>
+  </si>
+  <si>
+    <t>RECEPCIÓN DE SOLICITUDES ID25</t>
+  </si>
+  <si>
+    <t>RECEPCIÓN DE SOLICITUDES ID26</t>
+  </si>
+  <si>
+    <t>SOLUCION DE CASOS ID24</t>
+  </si>
+  <si>
+    <t>SOLUCION DE CASOS ID25</t>
+  </si>
+  <si>
+    <t>SOLUCION DE CASOS ID27</t>
+  </si>
+  <si>
+    <t>SOLUCION DE CASOS ID34</t>
+  </si>
+  <si>
+    <t>Planteamiento procedimiento de atención de requerimientos, soporte y mantenimiento @desarrolloanaliticapayc - revisión de par @desarrolloanaliticapayc - Recordar modificar procedimiento para que se almacenen los adjuntos resultado de la atención en un repositorio con carpetas por cada ID de solicitud</t>
+  </si>
+  <si>
+    <t>6. Modificar la metodología de revisión para que aparezcan los indicadores por cada aspecto en la tabla inicial para que el coordinador pueda aprobar o rechazar los paquetes de calificaciones mensuales, esto de acuerdo a una asignación previa del usuario obra</t>
+  </si>
+  <si>
+    <t>Documentar cada controlador de la aplicación en la wiki de la app</t>
+  </si>
+  <si>
+    <t>Actualizar formatos y rutina de cargue con los nuevos indicadores de comercial @desarrolloanaliticapayc</t>
+  </si>
+  <si>
+    <t>Modificación manual actualización de archivo indicadores en servidor</t>
+  </si>
+  <si>
+    <t>Revisión ID10</t>
+  </si>
+  <si>
+    <t>Creación de repositorios locales de Analitica</t>
   </si>
 </sst>
 </file>
@@ -279,11 +420,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,6 +486,12 @@
       <color rgb="FF24272B"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -410,9 +557,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -450,7 +597,7 @@
     <xf numFmtId="21" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -467,8 +614,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -497,72 +644,13 @@
       <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" indent="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" indent="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" indent="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1"/>
-    </dxf>
-    <dxf>
-      <protection locked="1"/>
-    </dxf>
-    <dxf>
-      <protection locked="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" indent="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" indent="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0" indent="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <alignment wrapText="1" readingOrder="0"/>
     </dxf>
@@ -639,7 +727,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;_-;_-@_-"/>
+      <numFmt numFmtId="166" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -657,7 +745,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;_-;_-@_-"/>
+      <numFmt numFmtId="166" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;_-;_-@_-"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -734,13 +822,13 @@
         <s v="Elaborar presentación de los resultados y presentar al área de tecnología"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="TIEMPO (días)" numFmtId="165">
+    <cacheField name="TIEMPO (días)" numFmtId="166">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.4467592592592594E-3" maxValue="0.95156249999999998"/>
     </cacheField>
     <cacheField name="TIEMPO (días laborables)" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.340277777777778E-3" maxValue="2.8546874999999998"/>
     </cacheField>
-    <cacheField name="FECHA" numFmtId="165">
+    <cacheField name="FECHA" numFmtId="166">
       <sharedItems count="4">
         <s v="2019-05-27 - 2019-06-02"/>
         <s v="2019-05-20 - 2019-05-26"/>
@@ -1123,7 +1211,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="5" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:F52" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -1182,7 +1270,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField dataField="1" numFmtId="166" showAll="0"/>
     <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisCol" showAll="0">
       <items count="5">
@@ -1368,7 +1456,7 @@
     <dataField name="Suma de TIEMPO (días)" fld="3" baseField="2" baseItem="2"/>
   </dataFields>
   <formats count="20">
-    <format dxfId="39">
+    <format dxfId="19">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -1377,17 +1465,17 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="38">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="37">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="36">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -1397,17 +1485,17 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="35">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="34">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="33">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -1417,33 +1505,33 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="32">
+    <format dxfId="12">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="11">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="30">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="29">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="27">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -1453,17 +1541,17 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="25">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="24">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -1473,17 +1561,17 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="20">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="1" count="1" selected="0">
@@ -1504,15 +1592,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:F46" totalsRowShown="0">
-  <autoFilter ref="A1:F46"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:F103" totalsRowShown="0">
+  <autoFilter ref="A1:F103"/>
   <tableColumns count="6">
     <tableColumn id="1" name="COLABORADOR"/>
     <tableColumn id="2" name="PROYECTO"/>
     <tableColumn id="3" name="ACTIVIDAD"/>
-    <tableColumn id="4" name="TIEMPO (días)" dataDxfId="41" dataCellStyle="Millares [0]"/>
+    <tableColumn id="4" name="TIEMPO (días)" dataDxfId="21" dataCellStyle="Millares [0]"/>
     <tableColumn id="5" name="TIEMPO (días laborables)"/>
-    <tableColumn id="6" name="FECHA" dataDxfId="40" dataCellStyle="Millares [0]"/>
+    <tableColumn id="6" name="FECHA" dataDxfId="20" dataCellStyle="Millares [0]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1783,7 +1871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -6032,10 +6120,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6964,6 +7052,1146 @@
         <v>0.51659722222222226</v>
       </c>
       <c r="F46" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>80</v>
+      </c>
+      <c r="D47" s="31">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E47">
+        <v>0.25</v>
+      </c>
+      <c r="F47" s="31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" t="s">
+        <v>81</v>
+      </c>
+      <c r="D48" s="31">
+        <v>4.1712962962962959E-2</v>
+      </c>
+      <c r="E48">
+        <v>0.12513888888888888</v>
+      </c>
+      <c r="F48" s="31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49" s="31">
+        <v>0.10098379629629629</v>
+      </c>
+      <c r="E49">
+        <v>0.3029513888888889</v>
+      </c>
+      <c r="F49" s="31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" t="s">
+        <v>84</v>
+      </c>
+      <c r="D50" s="31">
+        <v>0.19857638888888887</v>
+      </c>
+      <c r="E50">
+        <v>0.59572916666666664</v>
+      </c>
+      <c r="F50" s="31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" t="s">
+        <v>85</v>
+      </c>
+      <c r="D51" s="31">
+        <v>0.13767361111111112</v>
+      </c>
+      <c r="E51">
+        <v>0.41302083333333339</v>
+      </c>
+      <c r="F51" s="31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52" t="s">
+        <v>83</v>
+      </c>
+      <c r="C52" t="s">
+        <v>84</v>
+      </c>
+      <c r="D52" s="31">
+        <v>0.41902777777777778</v>
+      </c>
+      <c r="E52">
+        <v>1.2570833333333333</v>
+      </c>
+      <c r="F52" s="31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" t="s">
+        <v>87</v>
+      </c>
+      <c r="D53" s="31">
+        <v>6.6782407407407415E-3</v>
+      </c>
+      <c r="E53">
+        <v>2.0034722222222225E-2</v>
+      </c>
+      <c r="F53" s="31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54" t="s">
+        <v>89</v>
+      </c>
+      <c r="D54" s="31">
+        <v>0.22842592592592592</v>
+      </c>
+      <c r="E54">
+        <v>0.68527777777777776</v>
+      </c>
+      <c r="F54" s="31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" t="s">
+        <v>88</v>
+      </c>
+      <c r="C55" t="s">
+        <v>90</v>
+      </c>
+      <c r="D55" s="31">
+        <v>4.1701388888888885E-2</v>
+      </c>
+      <c r="E55">
+        <v>0.12510416666666666</v>
+      </c>
+      <c r="F55" s="31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" t="s">
+        <v>91</v>
+      </c>
+      <c r="D56" s="31">
+        <v>6.2083333333333331E-2</v>
+      </c>
+      <c r="E56">
+        <v>0.18625</v>
+      </c>
+      <c r="F56" s="31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" t="s">
+        <v>83</v>
+      </c>
+      <c r="C57" t="s">
+        <v>84</v>
+      </c>
+      <c r="D57" s="31">
+        <v>0.12151620370370371</v>
+      </c>
+      <c r="E57">
+        <v>0.36454861111111114</v>
+      </c>
+      <c r="F57" s="31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" t="s">
+        <v>88</v>
+      </c>
+      <c r="C58" t="s">
+        <v>92</v>
+      </c>
+      <c r="D58" s="31">
+        <v>0.38947916666666665</v>
+      </c>
+      <c r="E58">
+        <v>1.1684375</v>
+      </c>
+      <c r="F58" s="31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" t="s">
+        <v>93</v>
+      </c>
+      <c r="D59" s="31">
+        <v>8.3622685185185189E-2</v>
+      </c>
+      <c r="E59">
+        <v>0.25086805555555558</v>
+      </c>
+      <c r="F59" s="31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" t="s">
+        <v>82</v>
+      </c>
+      <c r="D60" s="31">
+        <v>5.6215277777777774E-2</v>
+      </c>
+      <c r="E60">
+        <v>0.16864583333333333</v>
+      </c>
+      <c r="F60" s="31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" t="s">
+        <v>94</v>
+      </c>
+      <c r="D61" s="31">
+        <v>5.9722222222222225E-2</v>
+      </c>
+      <c r="E61">
+        <v>0.17916666666666667</v>
+      </c>
+      <c r="F61" s="31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" t="s">
+        <v>95</v>
+      </c>
+      <c r="D62" s="31">
+        <v>0.10226851851851852</v>
+      </c>
+      <c r="E62">
+        <v>0.30680555555555555</v>
+      </c>
+      <c r="F62" s="31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>83</v>
+      </c>
+      <c r="C63" t="s">
+        <v>85</v>
+      </c>
+      <c r="D63" s="31">
+        <v>5.7372685185185186E-2</v>
+      </c>
+      <c r="E63">
+        <v>0.17211805555555557</v>
+      </c>
+      <c r="F63" s="31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" t="s">
+        <v>85</v>
+      </c>
+      <c r="D64" s="31">
+        <v>9.3344907407407404E-2</v>
+      </c>
+      <c r="E64">
+        <v>0.2800347222222222</v>
+      </c>
+      <c r="F64" s="31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65" t="s">
+        <v>96</v>
+      </c>
+      <c r="D65" s="31">
+        <v>5.2025462962962961E-2</v>
+      </c>
+      <c r="E65">
+        <v>0.15607638888888889</v>
+      </c>
+      <c r="F65" s="31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>83</v>
+      </c>
+      <c r="C66" t="s">
+        <v>97</v>
+      </c>
+      <c r="D66" s="31">
+        <v>1.7326388888888888E-2</v>
+      </c>
+      <c r="E66">
+        <v>5.197916666666666E-2</v>
+      </c>
+      <c r="F66" s="31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>83</v>
+      </c>
+      <c r="C67" t="s">
+        <v>98</v>
+      </c>
+      <c r="D67" s="31">
+        <v>1.2800925925925926E-2</v>
+      </c>
+      <c r="E67">
+        <v>3.8402777777777779E-2</v>
+      </c>
+      <c r="F67" s="31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>65</v>
+      </c>
+      <c r="B68" t="s">
+        <v>86</v>
+      </c>
+      <c r="C68" t="s">
+        <v>99</v>
+      </c>
+      <c r="D68" s="31">
+        <v>2.7951388888888887E-2</v>
+      </c>
+      <c r="E68">
+        <v>8.385416666666666E-2</v>
+      </c>
+      <c r="F68" s="31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>65</v>
+      </c>
+      <c r="B69" t="s">
+        <v>86</v>
+      </c>
+      <c r="C69" t="s">
+        <v>87</v>
+      </c>
+      <c r="D69" s="31">
+        <v>2.9629629629629627E-2</v>
+      </c>
+      <c r="E69">
+        <v>8.8888888888888878E-2</v>
+      </c>
+      <c r="F69" s="31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>65</v>
+      </c>
+      <c r="B70" t="s">
+        <v>88</v>
+      </c>
+      <c r="C70" t="s">
+        <v>100</v>
+      </c>
+      <c r="D70" s="31">
+        <v>6.1342592592592594E-2</v>
+      </c>
+      <c r="E70">
+        <v>0.18402777777777779</v>
+      </c>
+      <c r="F70" s="31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>65</v>
+      </c>
+      <c r="B71" t="s">
+        <v>88</v>
+      </c>
+      <c r="C71" t="s">
+        <v>101</v>
+      </c>
+      <c r="D71" s="31">
+        <v>5.7870370370370371E-2</v>
+      </c>
+      <c r="E71">
+        <v>0.1736111111111111</v>
+      </c>
+      <c r="F71" s="31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>65</v>
+      </c>
+      <c r="B72" t="s">
+        <v>88</v>
+      </c>
+      <c r="C72" t="s">
+        <v>102</v>
+      </c>
+      <c r="D72" s="31">
+        <v>9.6064814814814808E-4</v>
+      </c>
+      <c r="E72">
+        <v>2.8819444444444444E-3</v>
+      </c>
+      <c r="F72" s="31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>65</v>
+      </c>
+      <c r="B73" t="s">
+        <v>88</v>
+      </c>
+      <c r="C73" t="s">
+        <v>103</v>
+      </c>
+      <c r="D73" s="31">
+        <v>2.7141203703703706E-2</v>
+      </c>
+      <c r="E73">
+        <v>8.1423611111111113E-2</v>
+      </c>
+      <c r="F73" s="31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>65</v>
+      </c>
+      <c r="B74" t="s">
+        <v>88</v>
+      </c>
+      <c r="C74" t="s">
+        <v>104</v>
+      </c>
+      <c r="D74" s="31">
+        <v>1.292824074074074E-2</v>
+      </c>
+      <c r="E74">
+        <v>3.878472222222222E-2</v>
+      </c>
+      <c r="F74" s="31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>65</v>
+      </c>
+      <c r="B75" t="s">
+        <v>88</v>
+      </c>
+      <c r="C75" t="s">
+        <v>105</v>
+      </c>
+      <c r="D75" s="31">
+        <v>0.24208333333333334</v>
+      </c>
+      <c r="E75">
+        <v>0.72625000000000006</v>
+      </c>
+      <c r="F75" s="31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>65</v>
+      </c>
+      <c r="B76" t="s">
+        <v>23</v>
+      </c>
+      <c r="C76" t="s">
+        <v>106</v>
+      </c>
+      <c r="D76" s="31">
+        <v>5.1724537037037034E-2</v>
+      </c>
+      <c r="E76">
+        <v>0.15517361111111111</v>
+      </c>
+      <c r="F76" s="31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>65</v>
+      </c>
+      <c r="B77" t="s">
+        <v>23</v>
+      </c>
+      <c r="C77" t="s">
+        <v>107</v>
+      </c>
+      <c r="D77" s="31">
+        <v>8.0254629629629634E-2</v>
+      </c>
+      <c r="E77">
+        <v>0.24076388888888889</v>
+      </c>
+      <c r="F77" s="31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>65</v>
+      </c>
+      <c r="B78" t="s">
+        <v>23</v>
+      </c>
+      <c r="C78" t="s">
+        <v>108</v>
+      </c>
+      <c r="D78" s="31">
+        <v>1.0243055555555556E-2</v>
+      </c>
+      <c r="E78">
+        <v>3.0729166666666669E-2</v>
+      </c>
+      <c r="F78" s="31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>65</v>
+      </c>
+      <c r="B79" t="s">
+        <v>23</v>
+      </c>
+      <c r="C79" t="s">
+        <v>109</v>
+      </c>
+      <c r="D79" s="31">
+        <v>2.6909722222222224E-2</v>
+      </c>
+      <c r="E79">
+        <v>8.0729166666666671E-2</v>
+      </c>
+      <c r="F79" s="31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>65</v>
+      </c>
+      <c r="B80" t="s">
+        <v>23</v>
+      </c>
+      <c r="C80" t="s">
+        <v>110</v>
+      </c>
+      <c r="D80" s="31">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E80">
+        <v>0.25</v>
+      </c>
+      <c r="F80" s="31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>65</v>
+      </c>
+      <c r="B81" t="s">
+        <v>23</v>
+      </c>
+      <c r="C81" t="s">
+        <v>111</v>
+      </c>
+      <c r="D81" s="31">
+        <v>0.10964120370370371</v>
+      </c>
+      <c r="E81">
+        <v>0.32892361111111112</v>
+      </c>
+      <c r="F81" s="31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>65</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" t="s">
+        <v>112</v>
+      </c>
+      <c r="D82" s="31">
+        <v>5.4560185185185184E-2</v>
+      </c>
+      <c r="E82">
+        <v>0.16368055555555555</v>
+      </c>
+      <c r="F82" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>65</v>
+      </c>
+      <c r="B83" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" t="s">
+        <v>113</v>
+      </c>
+      <c r="D83" s="31">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E83">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F83" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>65</v>
+      </c>
+      <c r="B84" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" t="s">
+        <v>114</v>
+      </c>
+      <c r="D84" s="31">
+        <v>2.462962962962963E-2</v>
+      </c>
+      <c r="E84">
+        <v>7.3888888888888893E-2</v>
+      </c>
+      <c r="F84" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>65</v>
+      </c>
+      <c r="B85" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" t="s">
+        <v>115</v>
+      </c>
+      <c r="D85" s="31">
+        <v>1.2546296296296297E-2</v>
+      </c>
+      <c r="E85">
+        <v>3.7638888888888888E-2</v>
+      </c>
+      <c r="F85" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>65</v>
+      </c>
+      <c r="B86" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" t="s">
+        <v>116</v>
+      </c>
+      <c r="D86" s="31">
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="E86">
+        <v>0.16875000000000001</v>
+      </c>
+      <c r="F86" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>65</v>
+      </c>
+      <c r="B87" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" t="s">
+        <v>117</v>
+      </c>
+      <c r="D87" s="31">
+        <v>3.125E-2</v>
+      </c>
+      <c r="E87">
+        <v>9.375E-2</v>
+      </c>
+      <c r="F87" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>65</v>
+      </c>
+      <c r="B88" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" t="s">
+        <v>118</v>
+      </c>
+      <c r="D88" s="31">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E88">
+        <v>0.125</v>
+      </c>
+      <c r="F88" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>65</v>
+      </c>
+      <c r="B89" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" t="s">
+        <v>119</v>
+      </c>
+      <c r="D89" s="31">
+        <v>1.9386574074074073E-2</v>
+      </c>
+      <c r="E89">
+        <v>5.8159722222222224E-2</v>
+      </c>
+      <c r="F89" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>65</v>
+      </c>
+      <c r="B90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" t="s">
+        <v>82</v>
+      </c>
+      <c r="D90" s="31">
+        <v>9.6898148148148164E-2</v>
+      </c>
+      <c r="E90">
+        <v>0.29069444444444448</v>
+      </c>
+      <c r="F90" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>65</v>
+      </c>
+      <c r="B91" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91" t="s">
+        <v>120</v>
+      </c>
+      <c r="D91" s="31">
+        <v>9.2372685185185197E-2</v>
+      </c>
+      <c r="E91">
+        <v>0.27711805555555558</v>
+      </c>
+      <c r="F91" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>65</v>
+      </c>
+      <c r="B92" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" t="s">
+        <v>94</v>
+      </c>
+      <c r="D92" s="31">
+        <v>2.4421296296296292E-2</v>
+      </c>
+      <c r="E92">
+        <v>7.3263888888888878E-2</v>
+      </c>
+      <c r="F92" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>65</v>
+      </c>
+      <c r="B93" t="s">
+        <v>88</v>
+      </c>
+      <c r="C93" t="s">
+        <v>121</v>
+      </c>
+      <c r="D93" s="31">
+        <v>0.59833333333333327</v>
+      </c>
+      <c r="E93">
+        <v>1.7949999999999999</v>
+      </c>
+      <c r="F93" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>65</v>
+      </c>
+      <c r="B94" t="s">
+        <v>88</v>
+      </c>
+      <c r="C94" t="s">
+        <v>122</v>
+      </c>
+      <c r="D94" s="31">
+        <v>8.7615740740740744E-3</v>
+      </c>
+      <c r="E94">
+        <v>2.6284722222222223E-2</v>
+      </c>
+      <c r="F94" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>65</v>
+      </c>
+      <c r="B95" t="s">
+        <v>23</v>
+      </c>
+      <c r="C95" t="s">
+        <v>123</v>
+      </c>
+      <c r="D95" s="31">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E95">
+        <v>0.25</v>
+      </c>
+      <c r="F95" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>65</v>
+      </c>
+      <c r="B96" t="s">
+        <v>23</v>
+      </c>
+      <c r="C96" t="s">
+        <v>124</v>
+      </c>
+      <c r="D96" s="31">
+        <v>1.4606481481481482E-2</v>
+      </c>
+      <c r="E96">
+        <v>4.3819444444444446E-2</v>
+      </c>
+      <c r="F96" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>65</v>
+      </c>
+      <c r="B97" t="s">
+        <v>23</v>
+      </c>
+      <c r="C97" t="s">
+        <v>125</v>
+      </c>
+      <c r="D97" s="31">
+        <v>4.1770833333333333E-2</v>
+      </c>
+      <c r="E97">
+        <v>0.12531249999999999</v>
+      </c>
+      <c r="F97" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>65</v>
+      </c>
+      <c r="B98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" t="s">
+        <v>126</v>
+      </c>
+      <c r="D98" s="31">
+        <v>4.8275462962962958E-2</v>
+      </c>
+      <c r="E98">
+        <v>0.14482638888888888</v>
+      </c>
+      <c r="F98" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>65</v>
+      </c>
+      <c r="B99" t="s">
+        <v>23</v>
+      </c>
+      <c r="C99" t="s">
+        <v>106</v>
+      </c>
+      <c r="D99" s="31">
+        <v>5.1724537037037034E-2</v>
+      </c>
+      <c r="E99">
+        <v>0.15517361111111111</v>
+      </c>
+      <c r="F99" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>65</v>
+      </c>
+      <c r="B100" t="s">
+        <v>23</v>
+      </c>
+      <c r="C100" t="s">
+        <v>107</v>
+      </c>
+      <c r="D100" s="31">
+        <v>8.0254629629629634E-2</v>
+      </c>
+      <c r="E100">
+        <v>0.24076388888888889</v>
+      </c>
+      <c r="F100" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>65</v>
+      </c>
+      <c r="B101" t="s">
+        <v>23</v>
+      </c>
+      <c r="C101" t="s">
+        <v>108</v>
+      </c>
+      <c r="D101" s="31">
+        <v>1.0243055555555556E-2</v>
+      </c>
+      <c r="E101">
+        <v>3.0729166666666669E-2</v>
+      </c>
+      <c r="F101" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>65</v>
+      </c>
+      <c r="B102" t="s">
+        <v>23</v>
+      </c>
+      <c r="C102" t="s">
+        <v>109</v>
+      </c>
+      <c r="D102" s="31">
+        <v>2.6909722222222224E-2</v>
+      </c>
+      <c r="E102">
+        <v>8.0729166666666671E-2</v>
+      </c>
+      <c r="F102" s="31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>65</v>
+      </c>
+      <c r="B103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" t="s">
+        <v>111</v>
+      </c>
+      <c r="D103" s="31">
+        <v>0.10964120370370371</v>
+      </c>
+      <c r="E103">
+        <v>0.32892361111111112</v>
+      </c>
+      <c r="F103" s="31" t="s">
         <v>79</v>
       </c>
     </row>
